--- a/xlsx/各国国防预算列表_intext.xlsx
+++ b/xlsx/各国国防预算列表_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="604">
   <si>
     <t>各国国防预算列表</t>
   </si>
@@ -29,7 +29,7 @@
     <t>斯德哥尔摩国际和平研究所</t>
   </si>
   <si>
-    <t>政策_政策_美國_各国国防预算列表</t>
+    <t>政策_政策_美国_各国国防预算列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GDP</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E5%87%B1%E5%9B%A0%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>軍事凱因斯主義</t>
+    <t>军事凯因斯主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E7%99%BC%E4%B8%AD%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>開發中國家</t>
+    <t>开发中国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%9C</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%8C%AF%E7%8E%87</t>
   </si>
   <si>
-    <t>國際匯率</t>
+    <t>国际汇率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%AD%E4%B9%B0%E5%8A%9B%E5%B9%B3%E4%BB%B7</t>
@@ -131,19 +131,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%89%B9%E9%98%BF%E6%8B%89%E4%BC%AF%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>沙特阿拉伯軍事</t>
+    <t>沙特阿拉伯军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>法國軍事</t>
+    <t>法国军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>英國軍隊</t>
+    <t>英国军队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E5%8D%AB%E9%98%9F</t>
@@ -155,13 +155,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E8%81%AF%E9%82%A6%E5%9C%8B%E9%98%B2%E8%BB%8D</t>
   </si>
   <si>
-    <t>德國聯邦國防軍</t>
+    <t>德国联邦国防军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E6%B0%91%E5%9C%8B%E5%9C%8B%E8%BB%8D</t>
   </si>
   <si>
-    <t>大韓民國國軍</t>
+    <t>大韩民国国军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E5%86%9B%E4%BA%8B</t>
@@ -191,13 +191,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E5%9C%8B%E9%98%B2%E8%BB%8D</t>
   </si>
   <si>
-    <t>以色列國防軍</t>
+    <t>以色列国防军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>加拿大軍隊</t>
+    <t>加拿大军队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%86%9B%E9%98%9F</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>伊朗軍事</t>
+    <t>伊朗军事</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Algerian_People%27s_National_Armed_Forces</t>
@@ -227,13 +227,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E6%AD%A6%E8%A3%9D%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>新加坡武裝部隊</t>
+    <t>新加坡武装部队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%9C%8B%E8%BB%8D</t>
   </si>
   <si>
-    <t>中華民國國軍</t>
+    <t>中华民国国军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6%E5%86%9B%E4%BA%8B</t>
@@ -251,13 +251,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>波蘭軍事</t>
+    <t>波兰军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>荷蘭軍隊</t>
+    <t>荷兰军队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sultan_of_Oman%27s_Armed_Forces</t>
@@ -269,19 +269,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9E%E5%9C%8B%E5%AE%B6%E8%BB%8D</t>
   </si>
   <si>
-    <t>印度尼西亞國家軍</t>
+    <t>印度尼西亚国家军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>墨西哥軍事</t>
+    <t>墨西哥军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>科威特軍事</t>
+    <t>科威特军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E5%86%9B%E4%BA%8B</t>
@@ -293,13 +293,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E5%86%9B%E9%98%9F</t>
   </si>
   <si>
-    <t>荷兰军队</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -317,13 +314,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/PPP</t>
@@ -347,7 +344,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%92%E6%9C%89%E8%BB%8D%E9%9A%8A%E7%9A%84%E5%9C%8B%E5%AE%B6%E4%B8%80%E8%A6%BD</t>
   </si>
   <si>
-    <t>沒有軍隊的國家一覽</t>
+    <t>没有军队的国家一览</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%90%84%E5%9B%BD%E5%88%97%E8%A1%A8</t>
@@ -365,7 +362,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>地球科學</t>
+    <t>地球科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86</t>
@@ -425,7 +422,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%9C%80%E4%BD%8E%E9%BB%9E%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國最低點列表</t>
+    <t>各国最低点列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%B5%B7%E5%B2%B8%E7%BA%BF%E9%95%BF%E5%BA%A6%E5%88%97%E8%A1%A8</t>
@@ -455,13 +452,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E9%84%B0%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國鄰國列表</t>
+    <t>各国邻国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%99%82%E5%8D%80%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國時區列表</t>
+    <t>各国时区列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83</t>
@@ -473,7 +470,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%8F%AF%E6%8C%81%E7%BA%8C%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>環境可持續指數</t>
+    <t>环境可持续指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E7%BB%A9%E6%95%88%E6%8C%87%E6%95%B0</t>
@@ -509,7 +506,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E4%B8%96%E7%95%8C%E9%81%BA%E7%94%A2%E6%95%B8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國世界遺產數列表</t>
+    <t>各国世界遗产数列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Happy_Planet_Index</t>
@@ -521,19 +518,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>應用科學</t>
+    <t>应用科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>農業</t>
+    <t>农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E8%BE%B2%E6%A5%AD%E7%94%A2%E5%80%BC%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國農業產值列表</t>
+    <t>各国农业产值列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E8%B0%B7%E7%89%A9%E4%BA%A7%E9%87%8F%E5%88%97%E8%A1%A8</t>
@@ -575,7 +572,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>工業</t>
+    <t>工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%83%BD%E6%BA%90%E6%B6%88%E8%80%97%E9%87%8F</t>
@@ -587,7 +584,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E8%83%BD%E6%BA%90%E7%94%9F%E7%94%A2%E5%8F%8A%E6%B6%88%E8%80%97%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國能源生產及消耗列表</t>
+    <t>各国能源生产及消耗列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%AF%8F%E5%B9%B4%E4%BA%BA%E5%9D%87%E8%83%BD%E9%87%8F%E6%B6%88%E8%80%97%E5%88%97%E8%A1%A8</t>
@@ -599,13 +596,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9B%BB%E5%8A%9B%E6%B6%88%E8%80%97%E6%8E%92%E5%90%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家電力消耗排名列表</t>
+    <t>国家电力消耗排名列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E7%99%BC%E9%9B%BB%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國發電量列表</t>
+    <t>各国发电量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E7%9F%B3%E6%B2%B9</t>
@@ -713,7 +710,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E7%9F%BD%E7%94%A2%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國矽產量列表</t>
+    <t>各国矽产量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%92%BB%E7%9F%B3</t>
@@ -755,7 +752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E9%8B%B0%E7%94%A2%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國鋰產量列表</t>
+    <t>各国锂产量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%94%8C%E4%BA%A7%E9%87%8F%E5%88%97%E8%A1%A8</t>
@@ -767,7 +764,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E9%8A%80%E7%94%A2%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國銀產量列表</t>
+    <t>各国银产量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%BB%84%E9%87%91%E4%BA%A7%E9%87%8F%E5%88%97%E8%A1%A8</t>
@@ -779,13 +776,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E9%89%91%E7%94%A2%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國鉑產量列表</t>
+    <t>各国铂产量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E9%8E%82%E7%94%A2%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國鎂產量列表</t>
+    <t>各国镁产量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%93%8B%E4%BA%A7%E9%87%8F%E5%88%97%E8%A1%A8</t>
@@ -809,7 +806,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%B8</t>
   </si>
   <si>
-    <t>運輸</t>
+    <t>运输</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%85%AC%E8%B7%AF%E9%87%8C%E7%A8%8B%E5%88%97%E8%A1%A8</t>
@@ -857,37 +854,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%90%B5%E8%B7%AF%E9%87%8C%E7%A8%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家鐵路里程列表</t>
+    <t>国家铁路里程列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E9%90%B5%E8%B7%AF%E5%88%A9%E7%94%A8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國鐵路利用列表</t>
+    <t>各国铁路利用列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%80%9F%E9%90%B5%E8%B7%AF%E7%B7%9A%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>高速鐵路線列表</t>
+    <t>高速铁路线列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%90%84%E5%9F%8E%E5%B8%82%E5%9C%B0%E9%90%B5%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>世界各城市地鐵列表</t>
+    <t>世界各城市地铁列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9F%8E%E5%B8%82%E8%BB%8C%E9%81%93%E4%BA%A4%E9%80%9A%E5%B9%B4%E4%B9%98%E5%AE%A2%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>世界城市軌道交通年乘客量列表</t>
+    <t>世界城市轨道交通年乘客量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%90%84%E5%9F%8E%E5%B8%82%E8%B7%AF%E9%9D%A2%E9%9B%BB%E8%BB%8A%E8%88%87%E8%BC%95%E8%BB%8C%E7%B3%BB%E7%B5%B1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>世界各城市路面電車與輕軌系統列表</t>
+    <t>世界各城市路面电车与轻轨系统列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%B0%B4%E8%B7%AF%E6%80%BB%E9%87%8C%E7%A8%8B%E5%88%97%E8%A1%A8</t>
@@ -899,7 +896,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E5%95%86%E8%88%B9%E5%99%B8%E4%BD%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國商船噸位列表</t>
+    <t>各国商船吨位列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%B0%E6%9C%BA%E5%9C%BA%E6%95%B0%E9%87%8F%E5%88%97%E8%A1%A8</t>
@@ -917,7 +914,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>大眾媒體</t>
+    <t>大众媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%9B%BA%E5%AE%9A%E7%94%B5%E8%AF%9D%E6%95%B0%E7%9B%AE%E5%88%97%E8%A1%A8</t>
@@ -935,7 +932,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%99%BA%E6%85%A7%E5%9E%8B%E6%89%8B%E6%A9%9F%E6%99%AE%E5%8F%8A%E7%8E%87%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國智慧型手機普及率列表</t>
+    <t>各国智慧型手机普及率列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%92%E8%81%94%E7%BD%91%E4%BD%BF%E7%94%A8%E8%80%85%E6%95%B0%E7%9B%AE%E5%88%97%E8%A1%A8</t>
@@ -971,7 +968,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會科學</t>
+    <t>社会科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3</t>
@@ -989,7 +986,7 @@
     <t>https://zh.wikipedia.org/wiki/1950%E5%B9%B4%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>1950年國家人口列表</t>
+    <t>1950年国家人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
@@ -1013,7 +1010,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E6%AF%94</t>
   </si>
   <si>
-    <t>性別比</t>
+    <t>性别比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%9F%8E%E5%B8%82%E5%8C%96%E6%AF%94%E7%8E%87</t>
@@ -1061,19 +1058,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%95%86%E8%88%87%E5%9C%8B%E6%B0%91%E8%B2%A1%E5%AF%8C</t>
   </si>
   <si>
-    <t>智商與國民財富</t>
+    <t>智商与国民财富</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E8%AB%BE%E8%B2%9D%E7%88%BE%E7%8D%8E%E5%BE%97%E4%B8%BB%E4%BA%BA%E6%95%B8</t>
   </si>
   <si>
-    <t>各國諾貝爾獎得主人數</t>
+    <t>各国诺贝尔奖得主人数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E7%94%9F</t>
   </si>
   <si>
-    <t>衛生</t>
+    <t>卫生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%BA%E5%8F%A3%E5%87%BA%E7%94%9F%E7%8E%87%E5%88%97%E8%A1%A8</t>
@@ -1103,7 +1100,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%88%90%E5%B9%B4%E4%BA%BA%E7%95%B6%E4%B8%AD%E8%89%BE%E6%BB%8B%E7%97%85%E6%94%9C%E5%B8%B6%E7%97%85%E6%AF%92%E8%80%85%E6%95%B8%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國成年人當中艾滋病攜帶病毒者數量列表</t>
+    <t>各国成年人当中艾滋病携带病毒者数量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E8%90%A5%E5%85%BB%E4%B8%8D%E8%89%AF%E4%BA%BA%E5%8F%A3%E6%AF%94%E4%BE%8B%E5%88%97%E8%A1%A8</t>
@@ -1115,7 +1112,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E8%BA%AB%E9%AB%98</t>
   </si>
   <si>
-    <t>人類身高</t>
+    <t>人类身高</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A9%B4%E5%84%BF%E6%AD%BB%E4%BA%A1%E7%8E%87%E5%88%97%E8%A1%A8</t>
@@ -1151,7 +1148,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E9%86%AB%E7%99%82%E8%A1%9B%E7%94%9F%E6%88%90%E6%9E%9C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國醫療衛生成果列表</t>
+    <t>各国医疗卫生成果列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E6%8C%87%E6%95%B0</t>
@@ -1193,7 +1190,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%95%99</t>
   </si>
   <si>
-    <t>國教</t>
+    <t>国教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E6%95%99</t>
@@ -1229,13 +1226,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%AB%94%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>政體列表</t>
+    <t>政体列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E5%9F%B7%E6%94%BF%E9%BB%A8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國執政黨列表</t>
+    <t>各国执政党列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%9B%BD%E5%88%97%E8%A1%A8</t>
@@ -1247,7 +1244,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E5%A4%A7%E5%B8%9D%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>最大帝國列表</t>
+    <t>最大帝国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E6%8C%87%E6%95%B0</t>
@@ -1259,7 +1256,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E8%88%87%E7%8D%A8%E8%A3%81%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>民主與獨裁指數</t>
+    <t>民主与独裁指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E8%B4%BF%E6%8C%87%E6%95%B0</t>
@@ -1271,7 +1268,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%AA%E6%B1%A1%E6%84%9F%E7%9F%A5%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>貪污感知指數</t>
+    <t>贪污感知指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E8%B4%A5%E5%9B%BD%E5%AE%B6%E6%8C%87%E6%95%B0</t>
@@ -1289,25 +1286,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%AF%A6%E5%8A%9B%E7%B6%9C%E5%90%88%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>國家實力綜合指數</t>
+    <t>国家实力综合指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E5%8A%9B</t>
   </si>
   <si>
-    <t>軍事力</t>
+    <t>军事力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%B6%AD%E5%92%8C%E9%83%A8%E9%9A%8A%E5%90%84%E5%9C%8B%E5%85%B5%E5%8A%9B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國維和部隊各國兵力列表</t>
+    <t>联合国维和部队各国兵力列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E6%AD%A6%E5%99%A8%E6%93%81%E6%9C%89%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>核武器擁有國列表</t>
+    <t>核武器拥有国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E8%AD%A6%E5%AF%9F%E6%95%B0%E9%87%8F%E5%88%97%E8%A1%A8</t>
@@ -1319,7 +1316,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%92%E6%9C%89%E8%BB%8D%E9%9A%8A%E7%9A%84%E5%9C%8B%E5%AE%B6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>沒有軍隊的國家列表</t>
+    <t>没有军队的国家列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%86%9B%E4%BA%8B%E8%A3%85%E5%A4%87%E6%B0%B4%E5%B9%B3</t>
@@ -1373,19 +1370,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%AD%BB%E5%88%91%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國死刑列表</t>
+    <t>各国死刑列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%92%8C%E5%B9%B3%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>全球和平指數</t>
+    <t>全球和平指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>全球恐怖主義指數</t>
+    <t>全球恐怖主义指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E</t>
@@ -1397,7 +1394,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>貿易</t>
+    <t>贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E8%87%AA%E7%94%B1%E5%BA%A6%E6%8C%87%E6%95%B0</t>
@@ -1457,7 +1454,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%84%B2%E8%93%84%E7%8E%87%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各国儲蓄率列表</t>
+    <t>各国储蓄率列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8C%96%E6%8C%87%E6%95%B0</t>
@@ -1469,7 +1466,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E7%AB%B6%E7%88%AD%E5%8A%9B%E5%A0%B1%E5%91%8A</t>
   </si>
   <si>
-    <t>全球競爭力報告</t>
+    <t>全球竞争力报告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E4%BA%A7%E6%9D%83%E6%8C%87%E6%95%B0</t>
@@ -1505,7 +1502,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%9C%80%E4%BD%8E%E5%B7%A5%E8%B3%87%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國最低工資列表</t>
+    <t>各国最低工资列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%88%BF%E4%BB%B7%E6%94%B6%E5%85%A5%E6%AF%94%E5%88%97%E8%A1%A8</t>
@@ -1517,7 +1514,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E9%80%9A%E8%B2%A8%E5%B9%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>流通貨幣列表</t>
+    <t>流通货币列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E7%A0%94%E7%A9%B6%E4%B8%8E%E5%BC%80%E5%8F%91%E7%BB%8F%E8%B4%B9%E5%88%97%E8%A1%A8</t>
@@ -1577,25 +1574,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E4%BF%A1%E7%94%A8%E8%A9%95%E7%B4%9A%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國信用評級列表</t>
+    <t>各国信用评级列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E5%A4%96%E5%8C%AF%E5%84%B2%E5%82%99%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國外匯儲備列表</t>
+    <t>各国外汇储备列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E9%87%91%E5%84%B2%E5%82%99</t>
   </si>
   <si>
-    <t>黃金儲備</t>
+    <t>黄金储备</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A%E5%9C%8B%E5%AE%B6%E7%9A%84%E5%A4%96%E9%83%A8%E8%B3%87%E7%94%A2%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>主權國家的外部資產列表</t>
+    <t>主权国家的外部资产列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_countries_by_sovereign_wealth_funds</t>
@@ -1613,7 +1610,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%95%86%E4%B8%9A%E9%93%B6%E8%A1%8C%E6%9C%80%E5%84%AA%E6%83%A0%E5%88%A9%E7%8E%87%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各国商业银行最優惠利率列表</t>
+    <t>各国商业银行最优惠利率列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8_(%E5%9B%BD%E9%99%85%E6%B1%87%E7%8E%87)</t>
@@ -1661,7 +1658,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E5%9B%BA%E5%AE%9A%E6%8A%95%E8%B3%87%E7%B8%BD%E9%A1%8D%E8%88%87GDP%E6%AF%94%E4%BE%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國固定投資總額與GDP比例列表</t>
+    <t>各国固定投资总额与GDP比例列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B4%B9</t>
@@ -1685,7 +1682,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E4%BA%BA%E5%9D%87%E4%B9%B3%E9%A1%9E%E6%B6%88%E8%B2%BB%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國人均乳類消費量列表</t>
+    <t>各国人均乳类消费量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%BA%E5%9D%87%E7%83%9F%E8%8D%89%E6%B6%88%E8%B4%B9%E9%87%8F%E5%88%97%E8%A1%A8</t>
@@ -1721,7 +1718,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83%E4%B8%BB%E8%BE%A6%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>奧林匹克運動會主辦城市列表</t>
+    <t>奥林匹克运动会主办城市列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A%E5%A5%96%E7%89%8C%E7%BB%9F%E8%AE%A1</t>
@@ -1733,19 +1730,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B6%B3%E7%B8%BD%E4%B8%96%E7%95%8C%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>國際足總世界排名</t>
+    <t>国际足总世界排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E4%B8%BB%E8%BE%A6%E5%9C%8B</t>
   </si>
   <si>
-    <t>世界盃主辦國</t>
+    <t>世界杯主办国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD%E6%B1%BA%E8%B3%BD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>世界盃足球賽決賽列表</t>
+    <t>世界杯足球赛决赛列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%AF%AE%E7%90%83%E8%81%94%E5%90%88%E4%BC%9A%E4%B8%96%E7%95%8C%E6%8E%92%E5%90%8D</t>
@@ -1757,7 +1754,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A3%92%E7%90%83%E7%B8%BD%E6%9C%83%E4%B8%96%E7%95%8C%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>國際棒球總會世界排名</t>
+    <t>国际棒球总会世界排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%8F%91%E5%B1%95%E6%8C%87%E6%95%B0</t>
@@ -1781,7 +1778,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E6%80%A7%E5%88%A5%E5%B7%AE%E8%B7%9D%E5%A0%B1%E5%91%8A</t>
   </si>
   <si>
-    <t>全球性別差距報告</t>
+    <t>全球性别差距报告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%97%85%E6%B8%B8%E6%8E%92%E5%90%8D</t>
@@ -1793,7 +1790,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%BF%AB%E6%A8%82%E5%A0%B1%E5%91%8A</t>
   </si>
   <si>
-    <t>世界快樂報告</t>
+    <t>世界快乐报告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E6%B0%91%E5%B9%B8%E7%A6%8F%E6%80%BB%E5%80%BC</t>
@@ -1805,13 +1802,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A5%BD%E7%94%9F%E6%B4%BB%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>美好生活指數</t>
+    <t>美好生活指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E8%89%AF%E5%9C%8B%E5%AE%B6%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>優良國家指數</t>
+    <t>优良国家指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E7%A4%BE%E4%BC%9A%E8%BF%9B%E6%AD%A5%E6%8C%87%E6%95%B0%E5%88%97%E8%A1%A8</t>
@@ -1829,7 +1826,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E8%81%B2%E8%AD%BD%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>各國聲譽排名</t>
+    <t>各国声誉排名</t>
   </si>
 </sst>
 </file>
@@ -3534,7 +3531,7 @@
         <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3560,10 +3557,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>3</v>
@@ -3589,10 +3586,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>3</v>
@@ -3618,10 +3615,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -3647,10 +3644,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -3676,10 +3673,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -3705,10 +3702,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3734,10 +3731,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3763,10 +3760,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3792,10 +3789,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3821,10 +3818,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -3850,10 +3847,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3879,10 +3876,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3908,10 +3905,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3937,10 +3934,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -3966,10 +3963,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -3995,10 +3992,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4024,10 +4021,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4053,10 +4050,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4082,10 +4079,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -4111,10 +4108,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4140,10 +4137,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4169,10 +4166,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4198,10 +4195,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4227,10 +4224,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4256,10 +4253,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4285,10 +4282,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4314,10 +4311,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4343,10 +4340,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4372,10 +4369,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -4401,10 +4398,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4430,10 +4427,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4459,10 +4456,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4488,10 +4485,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4517,10 +4514,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4546,10 +4543,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4575,10 +4572,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4604,10 +4601,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4633,10 +4630,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4662,10 +4659,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4691,10 +4688,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4720,10 +4717,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4749,10 +4746,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4778,10 +4775,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4807,10 +4804,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4836,10 +4833,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4865,10 +4862,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4894,10 +4891,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4923,10 +4920,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4952,10 +4949,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4981,10 +4978,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5010,10 +5007,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5039,10 +5036,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5068,10 +5065,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -5097,10 +5094,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -5126,10 +5123,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>8</v>
@@ -5155,10 +5152,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -5184,10 +5181,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5213,10 +5210,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5242,10 +5239,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5271,10 +5268,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5300,10 +5297,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5329,10 +5326,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5358,10 +5355,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
         <v>217</v>
-      </c>
-      <c r="F110" t="s">
-        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5387,10 +5384,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
         <v>219</v>
-      </c>
-      <c r="F111" t="s">
-        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5416,10 +5413,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5445,10 +5442,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" t="s">
         <v>223</v>
-      </c>
-      <c r="F113" t="s">
-        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5474,10 +5471,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" t="s">
         <v>225</v>
-      </c>
-      <c r="F114" t="s">
-        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5503,10 +5500,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" t="s">
         <v>227</v>
-      </c>
-      <c r="F115" t="s">
-        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5532,10 +5529,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" t="s">
         <v>229</v>
-      </c>
-      <c r="F116" t="s">
-        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5561,10 +5558,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>230</v>
+      </c>
+      <c r="F117" t="s">
         <v>231</v>
-      </c>
-      <c r="F117" t="s">
-        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5590,10 +5587,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" t="s">
         <v>233</v>
-      </c>
-      <c r="F118" t="s">
-        <v>234</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5619,10 +5616,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>234</v>
+      </c>
+      <c r="F119" t="s">
         <v>235</v>
-      </c>
-      <c r="F119" t="s">
-        <v>236</v>
       </c>
       <c r="G119" t="n">
         <v>5</v>
@@ -5648,10 +5645,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>236</v>
+      </c>
+      <c r="F120" t="s">
         <v>237</v>
-      </c>
-      <c r="F120" t="s">
-        <v>238</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5677,10 +5674,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" t="s">
         <v>239</v>
-      </c>
-      <c r="F121" t="s">
-        <v>240</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5706,10 +5703,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>240</v>
+      </c>
+      <c r="F122" t="s">
         <v>241</v>
-      </c>
-      <c r="F122" t="s">
-        <v>242</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5735,10 +5732,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>242</v>
+      </c>
+      <c r="F123" t="s">
         <v>243</v>
-      </c>
-      <c r="F123" t="s">
-        <v>244</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -5764,10 +5761,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>244</v>
+      </c>
+      <c r="F124" t="s">
         <v>245</v>
-      </c>
-      <c r="F124" t="s">
-        <v>246</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5793,10 +5790,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>246</v>
+      </c>
+      <c r="F125" t="s">
         <v>247</v>
-      </c>
-      <c r="F125" t="s">
-        <v>248</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5822,10 +5819,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>248</v>
+      </c>
+      <c r="F126" t="s">
         <v>249</v>
-      </c>
-      <c r="F126" t="s">
-        <v>250</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5851,10 +5848,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>250</v>
+      </c>
+      <c r="F127" t="s">
         <v>251</v>
-      </c>
-      <c r="F127" t="s">
-        <v>252</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5880,10 +5877,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>252</v>
+      </c>
+      <c r="F128" t="s">
         <v>253</v>
-      </c>
-      <c r="F128" t="s">
-        <v>254</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5909,10 +5906,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>254</v>
+      </c>
+      <c r="F129" t="s">
         <v>255</v>
-      </c>
-      <c r="F129" t="s">
-        <v>256</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5938,10 +5935,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>256</v>
+      </c>
+      <c r="F130" t="s">
         <v>257</v>
-      </c>
-      <c r="F130" t="s">
-        <v>258</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5967,10 +5964,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>258</v>
+      </c>
+      <c r="F131" t="s">
         <v>259</v>
-      </c>
-      <c r="F131" t="s">
-        <v>260</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5996,10 +5993,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" t="s">
         <v>261</v>
-      </c>
-      <c r="F132" t="s">
-        <v>262</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -6025,10 +6022,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>262</v>
+      </c>
+      <c r="F133" t="s">
         <v>263</v>
-      </c>
-      <c r="F133" t="s">
-        <v>264</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6054,10 +6051,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>264</v>
+      </c>
+      <c r="F134" t="s">
         <v>265</v>
-      </c>
-      <c r="F134" t="s">
-        <v>266</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6083,10 +6080,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>266</v>
+      </c>
+      <c r="F135" t="s">
         <v>267</v>
-      </c>
-      <c r="F135" t="s">
-        <v>268</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6112,10 +6109,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>268</v>
+      </c>
+      <c r="F136" t="s">
         <v>269</v>
-      </c>
-      <c r="F136" t="s">
-        <v>270</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6141,10 +6138,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>270</v>
+      </c>
+      <c r="F137" t="s">
         <v>271</v>
-      </c>
-      <c r="F137" t="s">
-        <v>272</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6170,10 +6167,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>272</v>
+      </c>
+      <c r="F138" t="s">
         <v>273</v>
-      </c>
-      <c r="F138" t="s">
-        <v>274</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6199,10 +6196,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>274</v>
+      </c>
+      <c r="F139" t="s">
         <v>275</v>
-      </c>
-      <c r="F139" t="s">
-        <v>276</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6228,10 +6225,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>276</v>
+      </c>
+      <c r="F140" t="s">
         <v>277</v>
-      </c>
-      <c r="F140" t="s">
-        <v>278</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6257,10 +6254,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>278</v>
+      </c>
+      <c r="F141" t="s">
         <v>279</v>
-      </c>
-      <c r="F141" t="s">
-        <v>280</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6286,10 +6283,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>280</v>
+      </c>
+      <c r="F142" t="s">
         <v>281</v>
-      </c>
-      <c r="F142" t="s">
-        <v>282</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6315,10 +6312,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>282</v>
+      </c>
+      <c r="F143" t="s">
         <v>283</v>
-      </c>
-      <c r="F143" t="s">
-        <v>284</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6344,10 +6341,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>284</v>
+      </c>
+      <c r="F144" t="s">
         <v>285</v>
-      </c>
-      <c r="F144" t="s">
-        <v>286</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6373,10 +6370,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>286</v>
+      </c>
+      <c r="F145" t="s">
         <v>287</v>
-      </c>
-      <c r="F145" t="s">
-        <v>288</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6402,10 +6399,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>288</v>
+      </c>
+      <c r="F146" t="s">
         <v>289</v>
-      </c>
-      <c r="F146" t="s">
-        <v>290</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6431,10 +6428,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>290</v>
+      </c>
+      <c r="F147" t="s">
         <v>291</v>
-      </c>
-      <c r="F147" t="s">
-        <v>292</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6460,10 +6457,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>292</v>
+      </c>
+      <c r="F148" t="s">
         <v>293</v>
-      </c>
-      <c r="F148" t="s">
-        <v>294</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6489,10 +6486,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>294</v>
+      </c>
+      <c r="F149" t="s">
         <v>295</v>
-      </c>
-      <c r="F149" t="s">
-        <v>296</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6518,10 +6515,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>296</v>
+      </c>
+      <c r="F150" t="s">
         <v>297</v>
-      </c>
-      <c r="F150" t="s">
-        <v>298</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6547,10 +6544,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>298</v>
+      </c>
+      <c r="F151" t="s">
         <v>299</v>
-      </c>
-      <c r="F151" t="s">
-        <v>300</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6576,10 +6573,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>300</v>
+      </c>
+      <c r="F152" t="s">
         <v>301</v>
-      </c>
-      <c r="F152" t="s">
-        <v>302</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6605,10 +6602,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>302</v>
+      </c>
+      <c r="F153" t="s">
         <v>303</v>
-      </c>
-      <c r="F153" t="s">
-        <v>304</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6634,10 +6631,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>304</v>
+      </c>
+      <c r="F154" t="s">
         <v>305</v>
-      </c>
-      <c r="F154" t="s">
-        <v>306</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6663,10 +6660,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>306</v>
+      </c>
+      <c r="F155" t="s">
         <v>307</v>
-      </c>
-      <c r="F155" t="s">
-        <v>308</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6692,10 +6689,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>308</v>
+      </c>
+      <c r="F156" t="s">
         <v>309</v>
-      </c>
-      <c r="F156" t="s">
-        <v>310</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6721,10 +6718,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>310</v>
+      </c>
+      <c r="F157" t="s">
         <v>311</v>
-      </c>
-      <c r="F157" t="s">
-        <v>312</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6750,10 +6747,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>312</v>
+      </c>
+      <c r="F158" t="s">
         <v>313</v>
-      </c>
-      <c r="F158" t="s">
-        <v>314</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6779,10 +6776,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>314</v>
+      </c>
+      <c r="F159" t="s">
         <v>315</v>
-      </c>
-      <c r="F159" t="s">
-        <v>316</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6808,10 +6805,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>316</v>
+      </c>
+      <c r="F160" t="s">
         <v>317</v>
-      </c>
-      <c r="F160" t="s">
-        <v>318</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6837,10 +6834,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>318</v>
+      </c>
+      <c r="F161" t="s">
         <v>319</v>
-      </c>
-      <c r="F161" t="s">
-        <v>320</v>
       </c>
       <c r="G161" t="n">
         <v>4</v>
@@ -6866,10 +6863,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>320</v>
+      </c>
+      <c r="F162" t="s">
         <v>321</v>
-      </c>
-      <c r="F162" t="s">
-        <v>322</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6895,10 +6892,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>322</v>
+      </c>
+      <c r="F163" t="s">
         <v>323</v>
-      </c>
-      <c r="F163" t="s">
-        <v>324</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6924,10 +6921,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>324</v>
+      </c>
+      <c r="F164" t="s">
         <v>325</v>
-      </c>
-      <c r="F164" t="s">
-        <v>326</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6953,10 +6950,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>326</v>
+      </c>
+      <c r="F165" t="s">
         <v>327</v>
-      </c>
-      <c r="F165" t="s">
-        <v>328</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6982,10 +6979,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>328</v>
+      </c>
+      <c r="F166" t="s">
         <v>329</v>
-      </c>
-      <c r="F166" t="s">
-        <v>330</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7011,10 +7008,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>330</v>
+      </c>
+      <c r="F167" t="s">
         <v>331</v>
-      </c>
-      <c r="F167" t="s">
-        <v>332</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7040,10 +7037,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>332</v>
+      </c>
+      <c r="F168" t="s">
         <v>333</v>
-      </c>
-      <c r="F168" t="s">
-        <v>334</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7069,10 +7066,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>334</v>
+      </c>
+      <c r="F169" t="s">
         <v>335</v>
-      </c>
-      <c r="F169" t="s">
-        <v>336</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7098,10 +7095,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>336</v>
+      </c>
+      <c r="F170" t="s">
         <v>337</v>
-      </c>
-      <c r="F170" t="s">
-        <v>338</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7127,10 +7124,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>338</v>
+      </c>
+      <c r="F171" t="s">
         <v>339</v>
-      </c>
-      <c r="F171" t="s">
-        <v>340</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7156,10 +7153,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>340</v>
+      </c>
+      <c r="F172" t="s">
         <v>341</v>
-      </c>
-      <c r="F172" t="s">
-        <v>342</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7185,10 +7182,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>342</v>
+      </c>
+      <c r="F173" t="s">
         <v>343</v>
-      </c>
-      <c r="F173" t="s">
-        <v>344</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7214,10 +7211,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>344</v>
+      </c>
+      <c r="F174" t="s">
         <v>345</v>
-      </c>
-      <c r="F174" t="s">
-        <v>346</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7243,10 +7240,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>346</v>
+      </c>
+      <c r="F175" t="s">
         <v>347</v>
-      </c>
-      <c r="F175" t="s">
-        <v>348</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7272,10 +7269,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>348</v>
+      </c>
+      <c r="F176" t="s">
         <v>349</v>
-      </c>
-      <c r="F176" t="s">
-        <v>350</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7301,10 +7298,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>350</v>
+      </c>
+      <c r="F177" t="s">
         <v>351</v>
-      </c>
-      <c r="F177" t="s">
-        <v>352</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7330,10 +7327,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>352</v>
+      </c>
+      <c r="F178" t="s">
         <v>353</v>
-      </c>
-      <c r="F178" t="s">
-        <v>354</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7359,10 +7356,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>354</v>
+      </c>
+      <c r="F179" t="s">
         <v>355</v>
-      </c>
-      <c r="F179" t="s">
-        <v>356</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7388,10 +7385,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>356</v>
+      </c>
+      <c r="F180" t="s">
         <v>357</v>
-      </c>
-      <c r="F180" t="s">
-        <v>358</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7417,10 +7414,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>358</v>
+      </c>
+      <c r="F181" t="s">
         <v>359</v>
-      </c>
-      <c r="F181" t="s">
-        <v>360</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7446,10 +7443,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>360</v>
+      </c>
+      <c r="F182" t="s">
         <v>361</v>
-      </c>
-      <c r="F182" t="s">
-        <v>362</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7475,10 +7472,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>362</v>
+      </c>
+      <c r="F183" t="s">
         <v>363</v>
-      </c>
-      <c r="F183" t="s">
-        <v>364</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7504,10 +7501,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>364</v>
+      </c>
+      <c r="F184" t="s">
         <v>365</v>
-      </c>
-      <c r="F184" t="s">
-        <v>366</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7533,10 +7530,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>366</v>
+      </c>
+      <c r="F185" t="s">
         <v>367</v>
-      </c>
-      <c r="F185" t="s">
-        <v>368</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7562,10 +7559,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>368</v>
+      </c>
+      <c r="F186" t="s">
         <v>369</v>
-      </c>
-      <c r="F186" t="s">
-        <v>370</v>
       </c>
       <c r="G186" t="n">
         <v>3</v>
@@ -7591,10 +7588,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>370</v>
+      </c>
+      <c r="F187" t="s">
         <v>371</v>
-      </c>
-      <c r="F187" t="s">
-        <v>372</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7620,10 +7617,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>372</v>
+      </c>
+      <c r="F188" t="s">
         <v>373</v>
-      </c>
-      <c r="F188" t="s">
-        <v>374</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7649,10 +7646,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>374</v>
+      </c>
+      <c r="F189" t="s">
         <v>375</v>
-      </c>
-      <c r="F189" t="s">
-        <v>376</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7678,10 +7675,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>376</v>
+      </c>
+      <c r="F190" t="s">
         <v>377</v>
-      </c>
-      <c r="F190" t="s">
-        <v>378</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7707,10 +7704,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>378</v>
+      </c>
+      <c r="F191" t="s">
         <v>379</v>
-      </c>
-      <c r="F191" t="s">
-        <v>380</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7736,10 +7733,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>380</v>
+      </c>
+      <c r="F192" t="s">
         <v>381</v>
-      </c>
-      <c r="F192" t="s">
-        <v>382</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7765,10 +7762,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>382</v>
+      </c>
+      <c r="F193" t="s">
         <v>383</v>
-      </c>
-      <c r="F193" t="s">
-        <v>384</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7794,10 +7791,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>384</v>
+      </c>
+      <c r="F194" t="s">
         <v>385</v>
-      </c>
-      <c r="F194" t="s">
-        <v>386</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7823,10 +7820,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>386</v>
+      </c>
+      <c r="F195" t="s">
         <v>387</v>
-      </c>
-      <c r="F195" t="s">
-        <v>388</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -7852,10 +7849,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>388</v>
+      </c>
+      <c r="F196" t="s">
         <v>389</v>
-      </c>
-      <c r="F196" t="s">
-        <v>390</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7881,10 +7878,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>390</v>
+      </c>
+      <c r="F197" t="s">
         <v>391</v>
-      </c>
-      <c r="F197" t="s">
-        <v>392</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7910,10 +7907,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>392</v>
+      </c>
+      <c r="F198" t="s">
         <v>393</v>
-      </c>
-      <c r="F198" t="s">
-        <v>394</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7939,10 +7936,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>394</v>
+      </c>
+      <c r="F199" t="s">
         <v>395</v>
-      </c>
-      <c r="F199" t="s">
-        <v>396</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7968,10 +7965,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>396</v>
+      </c>
+      <c r="F200" t="s">
         <v>397</v>
-      </c>
-      <c r="F200" t="s">
-        <v>398</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7997,10 +7994,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>398</v>
+      </c>
+      <c r="F201" t="s">
         <v>399</v>
-      </c>
-      <c r="F201" t="s">
-        <v>400</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8026,10 +8023,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>400</v>
+      </c>
+      <c r="F202" t="s">
         <v>401</v>
-      </c>
-      <c r="F202" t="s">
-        <v>402</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8055,10 +8052,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>402</v>
+      </c>
+      <c r="F203" t="s">
         <v>403</v>
-      </c>
-      <c r="F203" t="s">
-        <v>404</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8084,10 +8081,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>404</v>
+      </c>
+      <c r="F204" t="s">
         <v>405</v>
-      </c>
-      <c r="F204" t="s">
-        <v>406</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8113,10 +8110,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>406</v>
+      </c>
+      <c r="F205" t="s">
         <v>407</v>
-      </c>
-      <c r="F205" t="s">
-        <v>408</v>
       </c>
       <c r="G205" t="n">
         <v>6</v>
@@ -8142,10 +8139,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>408</v>
+      </c>
+      <c r="F206" t="s">
         <v>409</v>
-      </c>
-      <c r="F206" t="s">
-        <v>410</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8171,10 +8168,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>410</v>
+      </c>
+      <c r="F207" t="s">
         <v>411</v>
-      </c>
-      <c r="F207" t="s">
-        <v>412</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8200,10 +8197,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>412</v>
+      </c>
+      <c r="F208" t="s">
         <v>413</v>
-      </c>
-      <c r="F208" t="s">
-        <v>414</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8229,10 +8226,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>414</v>
+      </c>
+      <c r="F209" t="s">
         <v>415</v>
-      </c>
-      <c r="F209" t="s">
-        <v>416</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8258,10 +8255,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>416</v>
+      </c>
+      <c r="F210" t="s">
         <v>417</v>
-      </c>
-      <c r="F210" t="s">
-        <v>418</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8287,10 +8284,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>418</v>
+      </c>
+      <c r="F211" t="s">
         <v>419</v>
-      </c>
-      <c r="F211" t="s">
-        <v>420</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8316,10 +8313,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>420</v>
+      </c>
+      <c r="F212" t="s">
         <v>421</v>
-      </c>
-      <c r="F212" t="s">
-        <v>422</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8345,10 +8342,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>422</v>
+      </c>
+      <c r="F213" t="s">
         <v>423</v>
-      </c>
-      <c r="F213" t="s">
-        <v>424</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8374,10 +8371,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>424</v>
+      </c>
+      <c r="F214" t="s">
         <v>425</v>
-      </c>
-      <c r="F214" t="s">
-        <v>426</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8403,10 +8400,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>106</v>
+      </c>
+      <c r="F215" t="s">
         <v>107</v>
-      </c>
-      <c r="F215" t="s">
-        <v>108</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8432,10 +8429,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>426</v>
+      </c>
+      <c r="F216" t="s">
         <v>427</v>
-      </c>
-      <c r="F216" t="s">
-        <v>428</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8461,10 +8458,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>428</v>
+      </c>
+      <c r="F217" t="s">
         <v>429</v>
-      </c>
-      <c r="F217" t="s">
-        <v>430</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8490,10 +8487,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>430</v>
+      </c>
+      <c r="F218" t="s">
         <v>431</v>
-      </c>
-      <c r="F218" t="s">
-        <v>432</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8519,10 +8516,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>432</v>
+      </c>
+      <c r="F219" t="s">
         <v>433</v>
-      </c>
-      <c r="F219" t="s">
-        <v>434</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8548,10 +8545,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>434</v>
+      </c>
+      <c r="F220" t="s">
         <v>435</v>
-      </c>
-      <c r="F220" t="s">
-        <v>436</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8577,10 +8574,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>436</v>
+      </c>
+      <c r="F221" t="s">
         <v>437</v>
-      </c>
-      <c r="F221" t="s">
-        <v>438</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8606,10 +8603,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>438</v>
+      </c>
+      <c r="F222" t="s">
         <v>439</v>
-      </c>
-      <c r="F222" t="s">
-        <v>440</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8635,10 +8632,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>440</v>
+      </c>
+      <c r="F223" t="s">
         <v>441</v>
-      </c>
-      <c r="F223" t="s">
-        <v>442</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8664,10 +8661,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>442</v>
+      </c>
+      <c r="F224" t="s">
         <v>443</v>
-      </c>
-      <c r="F224" t="s">
-        <v>444</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8693,10 +8690,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>444</v>
+      </c>
+      <c r="F225" t="s">
         <v>445</v>
-      </c>
-      <c r="F225" t="s">
-        <v>446</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8722,10 +8719,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>446</v>
+      </c>
+      <c r="F226" t="s">
         <v>447</v>
-      </c>
-      <c r="F226" t="s">
-        <v>448</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8751,10 +8748,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>448</v>
+      </c>
+      <c r="F227" t="s">
         <v>449</v>
-      </c>
-      <c r="F227" t="s">
-        <v>450</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8780,10 +8777,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>450</v>
+      </c>
+      <c r="F228" t="s">
         <v>451</v>
-      </c>
-      <c r="F228" t="s">
-        <v>452</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8809,10 +8806,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>452</v>
+      </c>
+      <c r="F229" t="s">
         <v>453</v>
-      </c>
-      <c r="F229" t="s">
-        <v>454</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8838,10 +8835,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>454</v>
+      </c>
+      <c r="F230" t="s">
         <v>455</v>
-      </c>
-      <c r="F230" t="s">
-        <v>456</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8867,10 +8864,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>456</v>
+      </c>
+      <c r="F231" t="s">
         <v>457</v>
-      </c>
-      <c r="F231" t="s">
-        <v>458</v>
       </c>
       <c r="G231" t="n">
         <v>5</v>
@@ -8896,10 +8893,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>458</v>
+      </c>
+      <c r="F232" t="s">
         <v>459</v>
-      </c>
-      <c r="F232" t="s">
-        <v>460</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8925,10 +8922,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>460</v>
+      </c>
+      <c r="F233" t="s">
         <v>461</v>
-      </c>
-      <c r="F233" t="s">
-        <v>462</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8954,10 +8951,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>462</v>
+      </c>
+      <c r="F234" t="s">
         <v>463</v>
-      </c>
-      <c r="F234" t="s">
-        <v>464</v>
       </c>
       <c r="G234" t="n">
         <v>22</v>
@@ -8983,10 +8980,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>464</v>
+      </c>
+      <c r="F235" t="s">
         <v>465</v>
-      </c>
-      <c r="F235" t="s">
-        <v>466</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9012,10 +9009,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>466</v>
+      </c>
+      <c r="F236" t="s">
         <v>467</v>
-      </c>
-      <c r="F236" t="s">
-        <v>468</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9041,10 +9038,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>468</v>
+      </c>
+      <c r="F237" t="s">
         <v>469</v>
-      </c>
-      <c r="F237" t="s">
-        <v>470</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9070,10 +9067,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>470</v>
+      </c>
+      <c r="F238" t="s">
         <v>471</v>
-      </c>
-      <c r="F238" t="s">
-        <v>472</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9099,10 +9096,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>472</v>
+      </c>
+      <c r="F239" t="s">
         <v>473</v>
-      </c>
-      <c r="F239" t="s">
-        <v>474</v>
       </c>
       <c r="G239" t="n">
         <v>7</v>
@@ -9128,10 +9125,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>474</v>
+      </c>
+      <c r="F240" t="s">
         <v>475</v>
-      </c>
-      <c r="F240" t="s">
-        <v>476</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9157,10 +9154,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>476</v>
+      </c>
+      <c r="F241" t="s">
         <v>477</v>
-      </c>
-      <c r="F241" t="s">
-        <v>478</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9186,10 +9183,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>478</v>
+      </c>
+      <c r="F242" t="s">
         <v>479</v>
-      </c>
-      <c r="F242" t="s">
-        <v>480</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9215,10 +9212,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>480</v>
+      </c>
+      <c r="F243" t="s">
         <v>481</v>
-      </c>
-      <c r="F243" t="s">
-        <v>482</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9244,10 +9241,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>482</v>
+      </c>
+      <c r="F244" t="s">
         <v>483</v>
-      </c>
-      <c r="F244" t="s">
-        <v>484</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9273,10 +9270,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>484</v>
+      </c>
+      <c r="F245" t="s">
         <v>485</v>
-      </c>
-      <c r="F245" t="s">
-        <v>486</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9302,10 +9299,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>486</v>
+      </c>
+      <c r="F246" t="s">
         <v>487</v>
-      </c>
-      <c r="F246" t="s">
-        <v>488</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9331,10 +9328,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>488</v>
+      </c>
+      <c r="F247" t="s">
         <v>489</v>
-      </c>
-      <c r="F247" t="s">
-        <v>490</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9360,10 +9357,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>490</v>
+      </c>
+      <c r="F248" t="s">
         <v>491</v>
-      </c>
-      <c r="F248" t="s">
-        <v>492</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9389,10 +9386,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>492</v>
+      </c>
+      <c r="F249" t="s">
         <v>493</v>
-      </c>
-      <c r="F249" t="s">
-        <v>494</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9418,10 +9415,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>494</v>
+      </c>
+      <c r="F250" t="s">
         <v>495</v>
-      </c>
-      <c r="F250" t="s">
-        <v>496</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9447,10 +9444,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>496</v>
+      </c>
+      <c r="F251" t="s">
         <v>497</v>
-      </c>
-      <c r="F251" t="s">
-        <v>498</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9476,10 +9473,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>498</v>
+      </c>
+      <c r="F252" t="s">
         <v>499</v>
-      </c>
-      <c r="F252" t="s">
-        <v>500</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9505,10 +9502,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>500</v>
+      </c>
+      <c r="F253" t="s">
         <v>501</v>
-      </c>
-      <c r="F253" t="s">
-        <v>502</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9534,10 +9531,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>502</v>
+      </c>
+      <c r="F254" t="s">
         <v>503</v>
-      </c>
-      <c r="F254" t="s">
-        <v>504</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9563,10 +9560,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>504</v>
+      </c>
+      <c r="F255" t="s">
         <v>505</v>
-      </c>
-      <c r="F255" t="s">
-        <v>506</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9592,10 +9589,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>506</v>
+      </c>
+      <c r="F256" t="s">
         <v>507</v>
-      </c>
-      <c r="F256" t="s">
-        <v>508</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9621,10 +9618,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>508</v>
+      </c>
+      <c r="F257" t="s">
         <v>509</v>
-      </c>
-      <c r="F257" t="s">
-        <v>510</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9650,10 +9647,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>510</v>
+      </c>
+      <c r="F258" t="s">
         <v>511</v>
-      </c>
-      <c r="F258" t="s">
-        <v>512</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9679,10 +9676,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>512</v>
+      </c>
+      <c r="F259" t="s">
         <v>513</v>
-      </c>
-      <c r="F259" t="s">
-        <v>514</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9708,10 +9705,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>514</v>
+      </c>
+      <c r="F260" t="s">
         <v>515</v>
-      </c>
-      <c r="F260" t="s">
-        <v>516</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9737,10 +9734,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>516</v>
+      </c>
+      <c r="F261" t="s">
         <v>517</v>
-      </c>
-      <c r="F261" t="s">
-        <v>518</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9766,10 +9763,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>518</v>
+      </c>
+      <c r="F262" t="s">
         <v>519</v>
-      </c>
-      <c r="F262" t="s">
-        <v>520</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9795,10 +9792,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>520</v>
+      </c>
+      <c r="F263" t="s">
         <v>521</v>
-      </c>
-      <c r="F263" t="s">
-        <v>522</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9824,10 +9821,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>522</v>
+      </c>
+      <c r="F264" t="s">
         <v>523</v>
-      </c>
-      <c r="F264" t="s">
-        <v>524</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9853,10 +9850,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>524</v>
+      </c>
+      <c r="F265" t="s">
         <v>525</v>
-      </c>
-      <c r="F265" t="s">
-        <v>526</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9882,10 +9879,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
+        <v>526</v>
+      </c>
+      <c r="F266" t="s">
         <v>527</v>
-      </c>
-      <c r="F266" t="s">
-        <v>528</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9911,10 +9908,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
+        <v>528</v>
+      </c>
+      <c r="F267" t="s">
         <v>529</v>
-      </c>
-      <c r="F267" t="s">
-        <v>530</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9940,10 +9937,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
+        <v>530</v>
+      </c>
+      <c r="F268" t="s">
         <v>531</v>
-      </c>
-      <c r="F268" t="s">
-        <v>532</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9969,10 +9966,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
+        <v>532</v>
+      </c>
+      <c r="F269" t="s">
         <v>533</v>
-      </c>
-      <c r="F269" t="s">
-        <v>534</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9998,10 +9995,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
+        <v>534</v>
+      </c>
+      <c r="F270" t="s">
         <v>535</v>
-      </c>
-      <c r="F270" t="s">
-        <v>536</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10027,10 +10024,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
+        <v>536</v>
+      </c>
+      <c r="F271" t="s">
         <v>537</v>
-      </c>
-      <c r="F271" t="s">
-        <v>538</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10056,10 +10053,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
+        <v>538</v>
+      </c>
+      <c r="F272" t="s">
         <v>539</v>
-      </c>
-      <c r="F272" t="s">
-        <v>540</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10085,10 +10082,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
+        <v>540</v>
+      </c>
+      <c r="F273" t="s">
         <v>541</v>
-      </c>
-      <c r="F273" t="s">
-        <v>542</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10114,10 +10111,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
+        <v>542</v>
+      </c>
+      <c r="F274" t="s">
         <v>543</v>
-      </c>
-      <c r="F274" t="s">
-        <v>544</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10143,10 +10140,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
+        <v>544</v>
+      </c>
+      <c r="F275" t="s">
         <v>545</v>
-      </c>
-      <c r="F275" t="s">
-        <v>546</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10172,10 +10169,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
+        <v>546</v>
+      </c>
+      <c r="F276" t="s">
         <v>547</v>
-      </c>
-      <c r="F276" t="s">
-        <v>548</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10201,10 +10198,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
+        <v>548</v>
+      </c>
+      <c r="F277" t="s">
         <v>549</v>
-      </c>
-      <c r="F277" t="s">
-        <v>550</v>
       </c>
       <c r="G277" t="n">
         <v>3</v>
@@ -10230,10 +10227,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
+        <v>550</v>
+      </c>
+      <c r="F278" t="s">
         <v>551</v>
-      </c>
-      <c r="F278" t="s">
-        <v>552</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10259,10 +10256,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
+        <v>552</v>
+      </c>
+      <c r="F279" t="s">
         <v>553</v>
-      </c>
-      <c r="F279" t="s">
-        <v>554</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10288,10 +10285,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
+        <v>554</v>
+      </c>
+      <c r="F280" t="s">
         <v>555</v>
-      </c>
-      <c r="F280" t="s">
-        <v>556</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10317,10 +10314,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
+        <v>556</v>
+      </c>
+      <c r="F281" t="s">
         <v>557</v>
-      </c>
-      <c r="F281" t="s">
-        <v>558</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10346,10 +10343,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
+        <v>558</v>
+      </c>
+      <c r="F282" t="s">
         <v>559</v>
-      </c>
-      <c r="F282" t="s">
-        <v>560</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10375,10 +10372,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
+        <v>560</v>
+      </c>
+      <c r="F283" t="s">
         <v>561</v>
-      </c>
-      <c r="F283" t="s">
-        <v>562</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10404,10 +10401,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
+        <v>562</v>
+      </c>
+      <c r="F284" t="s">
         <v>563</v>
-      </c>
-      <c r="F284" t="s">
-        <v>564</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10433,10 +10430,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
+        <v>564</v>
+      </c>
+      <c r="F285" t="s">
         <v>565</v>
-      </c>
-      <c r="F285" t="s">
-        <v>566</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10462,10 +10459,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
+        <v>566</v>
+      </c>
+      <c r="F286" t="s">
         <v>567</v>
-      </c>
-      <c r="F286" t="s">
-        <v>568</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10491,10 +10488,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
+        <v>568</v>
+      </c>
+      <c r="F287" t="s">
         <v>569</v>
-      </c>
-      <c r="F287" t="s">
-        <v>570</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10520,10 +10517,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
+        <v>570</v>
+      </c>
+      <c r="F288" t="s">
         <v>571</v>
-      </c>
-      <c r="F288" t="s">
-        <v>572</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10549,10 +10546,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
+        <v>572</v>
+      </c>
+      <c r="F289" t="s">
         <v>573</v>
-      </c>
-      <c r="F289" t="s">
-        <v>574</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10578,10 +10575,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
+        <v>574</v>
+      </c>
+      <c r="F290" t="s">
         <v>575</v>
-      </c>
-      <c r="F290" t="s">
-        <v>576</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10607,10 +10604,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
+        <v>576</v>
+      </c>
+      <c r="F291" t="s">
         <v>577</v>
-      </c>
-      <c r="F291" t="s">
-        <v>578</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10636,10 +10633,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
+        <v>578</v>
+      </c>
+      <c r="F292" t="s">
         <v>579</v>
-      </c>
-      <c r="F292" t="s">
-        <v>580</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10665,10 +10662,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
+        <v>580</v>
+      </c>
+      <c r="F293" t="s">
         <v>581</v>
-      </c>
-      <c r="F293" t="s">
-        <v>582</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10694,10 +10691,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
+        <v>582</v>
+      </c>
+      <c r="F294" t="s">
         <v>583</v>
-      </c>
-      <c r="F294" t="s">
-        <v>584</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10723,10 +10720,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
+        <v>584</v>
+      </c>
+      <c r="F295" t="s">
         <v>585</v>
-      </c>
-      <c r="F295" t="s">
-        <v>586</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10752,10 +10749,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
+        <v>586</v>
+      </c>
+      <c r="F296" t="s">
         <v>587</v>
-      </c>
-      <c r="F296" t="s">
-        <v>588</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10781,10 +10778,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
+        <v>588</v>
+      </c>
+      <c r="F297" t="s">
         <v>589</v>
-      </c>
-      <c r="F297" t="s">
-        <v>590</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10810,10 +10807,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
+        <v>590</v>
+      </c>
+      <c r="F298" t="s">
         <v>591</v>
-      </c>
-      <c r="F298" t="s">
-        <v>592</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10839,10 +10836,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
+        <v>592</v>
+      </c>
+      <c r="F299" t="s">
         <v>593</v>
-      </c>
-      <c r="F299" t="s">
-        <v>594</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10868,10 +10865,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
+        <v>594</v>
+      </c>
+      <c r="F300" t="s">
         <v>595</v>
-      </c>
-      <c r="F300" t="s">
-        <v>596</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -10897,10 +10894,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
+        <v>596</v>
+      </c>
+      <c r="F301" t="s">
         <v>597</v>
-      </c>
-      <c r="F301" t="s">
-        <v>598</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -10926,10 +10923,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
+        <v>598</v>
+      </c>
+      <c r="F302" t="s">
         <v>599</v>
-      </c>
-      <c r="F302" t="s">
-        <v>600</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -10955,10 +10952,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
+        <v>600</v>
+      </c>
+      <c r="F303" t="s">
         <v>601</v>
-      </c>
-      <c r="F303" t="s">
-        <v>602</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -10984,10 +10981,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
+        <v>602</v>
+      </c>
+      <c r="F304" t="s">
         <v>603</v>
-      </c>
-      <c r="F304" t="s">
-        <v>604</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
